--- a/docs/PTA2_DDC_80/PTA2_DDC_80_06.08.24_output.xlsx
+++ b/docs/PTA2_DDC_80/PTA2_DDC_80_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731781470.9617505</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731781473.2822158</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781470.9617505.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781473.2822158.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.59</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.05</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5399999999999636</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731781474.138368</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731781476.21067</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781474.138368.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781476.21067.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.27</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>279.37</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731781478.357414</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731781479.9319394</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781478.357414.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781479.9319394.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.8</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>279.44</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3600000000000136</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731781480.0664885</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731781485.0949273</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781480.0664885.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781485.0949273.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.85</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.31</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-1.54000000000002</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731781485.582272</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731781488.528139</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781485.582272.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781488.528139.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.26</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>278.85</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.5900000000000318</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731781490.3905354</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731781490.7567415</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781490.3905354.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731781490.7567415.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.51</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>279.35</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.8400000000000318</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -851,43 +903,49 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731781493.0607872</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731781493.0607872.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731781493.0607872.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>279.7</v>
       </c>
-      <c r="J9" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
+        <v>279.69</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.009999999999990905</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731781493.7038546</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731781496.1368349</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781493.7038546.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781496.1368349.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>129.29</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>129.09</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731781496.5512862</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731781497.764321</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781496.5512862.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781497.764321.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>128.7</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>129.1</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731781498.7727127</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731781499.1990473</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781498.7727127.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781499.1990473.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>128.57</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>128.83</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2600000000000193</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731781501.1120644</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731781503.5038872</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781501.1120644.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781503.5038872.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>129.12</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.05</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731781504.4742038</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731781509.531822</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781504.4742038.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781509.531822.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>128.79</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.99</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.7999999999999972</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731781509.7189527</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731781514.616946</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781509.7189527.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731781514.616946.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>128.29</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>128.51</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731781517.092892</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731781519.2790859</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781517.092892.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781519.2790859.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6494.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6470</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>24.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731781520.1006882</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731781523.0591283</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781520.1006882.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781523.0591283.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6447</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6436</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-11</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731781523.6205056</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731781526.6917415</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781523.6205056.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781526.6917415.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6448</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6448</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731781526.8089385</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731781532.2235196</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781526.8089385.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781532.2235196.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6442</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6373</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-69</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-1.07</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731781532.71642</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731781536.2319043</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781532.71642.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731781536.2319043.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6387.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6422.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-35</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -1467,95 +1591,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731781538.5776806</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731781538.5776806.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731781538.5776806.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J21" t="n">
-        <v>6435.5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>6448</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731781542.7289815</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731781545.4659293</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781542.7289815.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781545.4659293.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>498.3</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>497.7</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731781545.8975558</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731781548.0559177</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781545.8975558.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781548.0559177.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>497.55</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>497.65</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731781548.20949</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731781552.5525587</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781548.20949.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781552.5525587.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>497</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>492.95</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-4.050000000000011</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.8099999999999999</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731781553.089283</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731781553.5444417</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781553.089283.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731781553.5444417.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>493.2</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>494.45</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1.25</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1719,95 +1873,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731781559.3506203</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731781559.3506203.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731781559.3506203.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>495.3</v>
       </c>
-      <c r="J26" t="n">
-        <v>495.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>495.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.3000000000000114</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731781563.0119867</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731781563.8399968</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781563.0119867.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781563.8399968.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>225.27</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>225.89</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.6199999999999761</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731781565.6181476</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731781566.35717</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781565.6181476.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781566.35717.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>225.13</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>225.71</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.5800000000000125</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731781568.2883496</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731781570.284161</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781568.2883496.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781570.284161.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>226.17</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>226.62</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.4500000000000171</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731781570.9729397</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731781575.040661</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781570.9729397.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781575.040661.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>226.07</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>225.18</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.8899999999999864</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731781575.1992383</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731781575.6542206</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781575.1992383.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731781575.6542206.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>225.55</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>225.22</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.3300000000000125</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2023,95 +2213,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731781583.5775313</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731781583.5775313.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731781583.5775313.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>226.53</v>
       </c>
-      <c r="J32" t="n">
-        <v>226.53</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>226.47</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731781586.4613173</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731781589.3911521</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781586.4613173.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781589.3911521.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1011.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1010.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2119,51 +2321,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731781591.8019042</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731781592.1672711</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781591.8019042.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781592.1672711.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1010.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1008.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2171,51 +2379,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731781593.3390315</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731781596.7659364</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781593.3390315.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781596.7659364.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1007</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-2.600000000000023</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2223,51 +2437,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731781597.2514262</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731781597.4472709</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781597.2514262.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781597.4472709.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1005.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1002.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731781597.7063627</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731781598.484488</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781597.7063627.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781598.484488.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1001.4</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1003.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731781598.5590837</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731781598.6320715</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781598.5590837.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781598.6320715.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1001.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1004.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731781598.9769042</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731781600.1311548</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781598.9769042.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731781600.1311548.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1005.6</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2431,95 +2669,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731781605.2184553</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731781605.2184553.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731781605.2184553.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1007.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>1007.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1008</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731781609.2483273</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731781609.7911873</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781609.2483273.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781609.7911873.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>11.815</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>11.835</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.02000000000000135</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2527,51 +2777,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731781610.1824274</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731781610.3575296</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781610.1824274.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781610.3575296.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>11.854</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>11.823</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.03099999999999881</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2579,51 +2835,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731781611.7494397</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731781617.7986183</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781611.7494397.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781617.7986183.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>11.862</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>11.895</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.03299999999999947</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731781619.870708</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731781621.2036061</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781619.870708.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781621.2036061.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>11.929</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>11.922</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731781623.3764956</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731781624.1573796</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781623.3764956.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731781624.1573796.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.912</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.919</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.006999999999999673</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731781630.2566235</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731781631.724153</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781630.2566235.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781631.724153.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>125.38</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>125.28</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731781631.9031997</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731781634.2381136</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781631.9031997.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781634.2381136.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>124.94</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>124.92</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731781635.0791302</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731781637.7643926</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781635.0791302.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781637.7643926.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>125.1</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>124.98</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1199999999999903</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731781638.719345</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731781641.6826189</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781638.719345.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781641.6826189.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>124.98</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>124.74</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.2400000000000091</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731781642.7943814</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731781642.984708</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781642.7943814.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781642.984708.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>124.36</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>124.66</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2999999999999972</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731781643.2604384</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731781646.0364578</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781643.2604384.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781646.0364578.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>125</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>125.12</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731781646.0514176</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731781647.2737815</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781646.0514176.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731781647.2737815.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>125.12</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>125.1</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731781651.9652307</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731781653.6741068</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781651.9652307.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781653.6741068.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>162.86</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>161.1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>1.760000000000019</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731781654.3173013</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731781657.158067</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781654.3173013.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781657.158067.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>160.5</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>159.62</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.8799999999999955</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731781657.236613</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731781660.6982565</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781657.236613.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781660.6982565.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>159.74</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>159.86</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731781661.3714244</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731781665.5070376</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781661.3714244.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781665.5070376.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>159.66</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>159.14</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.5200000000000102</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -3307,51 +3647,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731781665.7751622</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731781666.798596</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781665.7751622.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731781666.798596.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>159.48</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>159.06</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.4199999999999875</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3359,95 +3705,107 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731781672.28444</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731781672.28444.png</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731781672.28444.png</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>159.92</v>
       </c>
-      <c r="J58" t="n">
-        <v>159.92</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>160.26</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731781676.9623954</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731781678.281141</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781676.9623954.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781678.281141.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>48.595</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>48.8</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.2049999999999983</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731781679.5759478</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731781684.1229076</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781679.5759478.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781684.1229076.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>48.905</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>48.905</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3507,51 +3871,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731781684.1378675</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731781688.6491313</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781684.1378675.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781688.6491313.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>48.905</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>48.795</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731781688.8165267</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731781691.5974944</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781688.8165267.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781691.5974944.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>48.92</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>48.905</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3611,51 +3987,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731781691.9011624</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731781694.27477</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781691.9011624.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731781694.27477.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>48.83</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>48.985</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1550000000000011</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3663,95 +4045,107 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731781696.4322665</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731781696.4322665.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731781696.4322665.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>49</v>
       </c>
-      <c r="J64" t="n">
-        <v>49</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>49.105</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.1049999999999969</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731781697.7875414</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731781699.3114724</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781697.7875414.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781699.3114724.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1401</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1390.2</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>10.79999999999995</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -3759,51 +4153,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731781701.7053742</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731781704.6421635</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781701.7053742.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781704.6421635.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1382.8</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1385</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -3811,51 +4211,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731781705.0832686</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731781705.8089073</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781705.0832686.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781705.8089073.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1384.8</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1385.2</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.4000000000000909</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -3863,51 +4269,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731781706.2118573</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731781706.3697824</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781706.2118573.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781706.3697824.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1382.6</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1386.6</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>4</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -3915,51 +4327,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731781706.7690618</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731781711.1197925</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781706.7690618.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731781711.1197925.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1383.4</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1361.4</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-22</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-1.59</v>
       </c>
     </row>
@@ -3967,95 +4385,107 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731781717.7821755</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731781717.7821755.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731781717.7821755.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1369.8</v>
       </c>
-      <c r="J70" t="n">
-        <v>1369.8</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1370.2</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.4000000000000909</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731781718.7270741</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731781719.3292887</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781718.7270741.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781719.3292887.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>60.52</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>59.79</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.730000000000004</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>1.21</v>
       </c>
     </row>
@@ -4063,51 +4493,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731781721.2751594</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731781724.400478</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781721.2751594.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781724.400478.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>59.7</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>59.7</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4115,51 +4551,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731781725.464016</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731781727.0327759</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781725.464016.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781727.0327759.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>59.76</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>59.7</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.05999999999999517</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4167,51 +4609,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731781727.4219742</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731781731.4423935</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781727.4219742.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781731.4423935.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>59.55</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>59.37</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -4219,51 +4667,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731781732.0067759</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731781734.4746263</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781732.0067759.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731781734.4746263.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>59.54</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>59.63</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -4271,95 +4725,107 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731781734.955563</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731781734.955563.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731781734.955563.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>59.79</v>
       </c>
-      <c r="J76" t="n">
-        <v>59.79</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>60.26</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-0.4699999999999989</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731781740.0975094</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731781741.598941</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781740.0975094.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781741.598941.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>97.34</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>97.02</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.3200000000000074</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -4367,51 +4833,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731781742.1976032</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731781744.8750541</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781742.1976032.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781744.8750541.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>96.53</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>96.48999999999999</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4419,51 +4891,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731781746.3823411</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731781748.7124438</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781746.3823411.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781748.7124438.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>96.62</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>96.66</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4471,51 +4949,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731781749.4463754</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731781754.2215755</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781749.4463754.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781754.2215755.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>96.48</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>95.70999999999999</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.7700000000000102</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -4523,51 +5007,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731781754.7934725</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731781755.3291843</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781754.7934725.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781755.3291843.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>96.06</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>95.95999999999999</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1000000000000085</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4575,51 +5065,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731781758.684446</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731781759.744106</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781758.684446.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731781759.744106.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>95.95</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>96.2</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.25</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4627,51 +5123,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731781767.607766</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731781769.309757</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781767.607766.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781769.309757.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>56.05</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>56.14</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4679,51 +5181,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731781771.880523</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731781776.3543823</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781771.880523.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781776.3543823.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>55.78</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>55.42</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>-0.3599999999999994</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -4731,51 +5239,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731781776.6934998</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731781776.954761</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781776.6934998.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731781776.954761.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>55.81</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>55.44</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.66</v>
       </c>
     </row>
@@ -4783,51 +5297,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731781784.3848698</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731781787.080635</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781784.3848698.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781787.080635.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>144.2</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>143.7</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.5</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4835,51 +5355,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731781787.7424889</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731781788.0327566</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781787.7424889.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781788.0327566.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>145</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>143.78</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>1.219999999999999</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.84</v>
       </c>
     </row>
@@ -4887,51 +5413,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731781792.3262434</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731781792.8239048</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781792.3262434.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781792.8239048.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>143.32</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>144.1</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.7800000000000011</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -4939,51 +5471,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731781793.980485</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731781797.3515284</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781793.980485.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781797.3515284.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>143.04</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>143.18</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4991,51 +5529,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731781798.5203733</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731781801.5657113</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781798.5203733.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731781801.5657113.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>143.88</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>143.38</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.5</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -5043,51 +5587,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731781804.5646698</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731781806.9055629</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781804.5646698.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781806.9055629.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>20.142</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>20.061</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.08099999999999952</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -5095,51 +5645,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731781807.4394987</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731781809.9614694</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781807.4394987.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781809.9614694.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>19.978</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>19.995</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.01699999999999946</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -5147,51 +5703,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731781811.043412</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731781816.746989</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781811.043412.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781816.746989.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>19.911</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>19.775</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.1360000000000028</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>-0.6799999999999999</v>
       </c>
     </row>
@@ -5199,51 +5761,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731781819.1379097</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731781819.7617025</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781819.1379097.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731781819.7617025.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>19.772</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>19.819</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.0470000000000006</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -5251,51 +5819,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731781827.4190578</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731781829.493186</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781827.4190578.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781829.493186.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>670.15</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>669</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5303,51 +5877,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731781832.7828233</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731781833.1907198</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781832.7828233.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781833.1907198.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>669.9</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>668.15</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>1.75</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -5355,51 +5935,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731781836.2524807</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731781841.261939</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781836.2524807.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781841.261939.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>667.5</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>664.1</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-3.399999999999977</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>-0.51</v>
       </c>
     </row>
@@ -5407,51 +5993,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731781841.8415434</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731781843.9958477</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781841.8415434.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781843.9958477.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>669.1</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>666.25</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>2.850000000000023</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -5459,51 +6051,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731781847.0922163</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731781847.9460115</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781847.0922163.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731781847.9460115.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>670.1</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>670.1</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5511,51 +6109,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731781850.4727912</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731781851.6834555</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781850.4727912.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781851.6834555.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>155.26</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>154.9</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.3599999999999852</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -5563,51 +6167,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731781852.0798726</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731781857.4044886</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781852.0798726.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781857.4044886.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>153.75</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>152.24</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-1.509999999999991</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>-0.98</v>
       </c>
     </row>
@@ -5615,51 +6225,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731781860.3449798</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731781864.3856325</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781860.3449798.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781864.3856325.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>151.44</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>148.68</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>-2.759999999999991</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>-1.82</v>
       </c>
     </row>
@@ -5667,51 +6283,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731781866.6923766</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731781868.1544042</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781866.6923766.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781868.1544042.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>149.48</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>148.66</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -5719,51 +6341,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731781868.5008788</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731781870.074315</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781868.5008788.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731781870.074315.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>148.25</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>148.43</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -5771,95 +6399,107 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731781871.595813</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731781871.595813.png</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731781871.595813.png</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>149.03</v>
       </c>
-      <c r="J105" t="n">
-        <v>149.03</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>149.36</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-0.3300000000000125</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731781876.703108</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731781879.7689338</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781876.703108.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781879.7689338.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>0.09570000000000001</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>0.09586000000000001</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.0001600000000000074</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5867,51 +6507,57 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731781881.3227427</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731781886.288686</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781881.3227427.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/FEES1731781886.288686.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>0.0954</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>0.09542</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>2.000000000000612e-05</v>
       </c>
-      <c r="L107" t="n">
+      <c r="N107" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5919,51 +6565,57 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731781894.0310326</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731781895.3124027</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781894.0310326.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781895.3124027.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>2932</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>2924.3</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>7.699999999999818</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -5971,51 +6623,57 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731781895.689514</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731781898.334117</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781895.689514.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781898.334117.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>2912.7</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>2912.65</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>-0.04999999999972715</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>-0</v>
       </c>
     </row>
@@ -6023,51 +6681,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731781900.2312655</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731781902.3477488</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781900.2312655.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781902.3477488.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>2917</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>2913.3</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>3.699999999999818</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -6075,51 +6739,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731781902.5586946</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731781907.72163</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781902.5586946.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781907.72163.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>2909.65</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>2890.7</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-18.95000000000027</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -6127,51 +6797,57 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731781908.2141027</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731781910.953707</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781908.2141027.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781910.953707.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>2899.45</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>2901.55</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-2.100000000000364</v>
       </c>
-      <c r="L112" t="n">
+      <c r="N112" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -6179,51 +6855,57 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731781912.603818</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731781913.714071</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781912.603818.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MXI1731781913.714071.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>2898.1</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>2905.15</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>7.050000000000182</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -6231,44 +6913,50 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731781914.8448439</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731781914.8448439.png</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731781914.8448439.png</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>2906.95</v>
       </c>
-      <c r="J114" t="n">
-        <v>2906.95</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>2909.55</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-2.600000000000364</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -6329,16 +7017,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.60000000000025</v>
+        <v>6.000000000000227</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8250000000000313</v>
+        <v>0.7500000000000284</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
         <v>0.08</v>
@@ -6351,13 +7039,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2900000000000205</v>
+        <v>-0.2800000000000296</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.04142857142857435</v>
+        <v>-0.04000000000000422</v>
       </c>
       <c r="E3" t="n">
         <v>-0.09999999999999998</v>
@@ -6373,19 +7061,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.650000000000546</v>
+        <v>-5.250000000000909</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3785714285715066</v>
+        <v>-0.7500000000001299</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.09000000000000002</v>
+        <v>-0.18</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="5">
@@ -6417,19 +7105,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.909999999999997</v>
+        <v>-3.240000000000009</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4849999999999994</v>
+        <v>-0.5400000000000015</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.9</v>
+        <v>-2.12</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.32</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="7">
@@ -6439,16 +7127,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1899999999999977</v>
+        <v>0.25</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03166666666666629</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F7" t="n">
         <v>0.02</v>
@@ -6461,19 +7149,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6599999999999966</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.0533333333333322</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3800000000000001</v>
+        <v>0.1700000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -6483,19 +7171,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.519999999999996</v>
+        <v>0.04999999999999716</v>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.086666666666666</v>
+        <v>0.00833333333333286</v>
       </c>
       <c r="E9" t="n">
-        <v>0.86</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="F9" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10">
@@ -6505,19 +7193,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2650000000000006</v>
+        <v>0.1600000000000037</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.04416666666666676</v>
+        <v>0.02666666666666728</v>
       </c>
       <c r="E10" t="n">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
@@ -6527,19 +7215,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-90.5</v>
+        <v>-103</v>
       </c>
       <c r="C11" t="n">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.08333333333333</v>
+        <v>-17.16666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.41</v>
+        <v>-1.6</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="12">
@@ -6593,16 +7281,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.400000000000091</v>
+        <v>-5.800000000000182</v>
       </c>
       <c r="C14" t="n">
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9000000000000151</v>
+        <v>-0.966666666666697</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4000000000000001</v>
+        <v>-0.4300000000000002</v>
       </c>
       <c r="F14" t="n">
         <v>-0.07000000000000001</v>
@@ -6659,19 +7347,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6</v>
+        <v>-6.300000000000011</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.2</v>
+        <v>-1.260000000000002</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.2</v>
+        <v>-1.26</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="18">
